--- a/data/trans_camb/P3A_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 6,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 8,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 3,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 2,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 3,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 3,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 3,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 4,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 2,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 41,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,45; 53,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,93; 25,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,9; 39,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,94; 46,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 57,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 31,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 40,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,62; 23,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,78; 10,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,0; 15,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 9,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,81; 10,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 12,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,41; 8,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 12,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 9,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,87; 53,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,65; 81,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,81; 45,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,99; 66,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,95; 98,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,25; 111,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,09; 53,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,49; 79,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,34; 61,91</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 14,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,46; 20,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,68; 15,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 9,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 12,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 11,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 10,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,63; 14,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,27; 11,81</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,9%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,22; 60,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,29; 80,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,4; 64,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; 43,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,06; 55,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 52,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,2; 43,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,03; 60,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,83; 48,67</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 8,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,27; 13,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 8,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,98; 8,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,79; 10,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 6,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,52; 10,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,11; 9,05</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,05%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,63; 44,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,3; 68,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 44,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,96; 41,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,77; 75,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,16; 89,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,48; 39,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,62; 67,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,25; 56,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 6,54</t>
+          <t>-0,32; 6,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,28</t>
+          <t>0,94; 8,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,77</t>
+          <t>-4,2; 3,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,58</t>
+          <t>-1,57; 2,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,09</t>
+          <t>-1,32; 3,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,69</t>
+          <t>-0,51; 3,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,46</t>
+          <t>-0,46; 3,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,38</t>
+          <t>0,36; 4,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,54</t>
+          <t>-1,43; 2,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 41,74</t>
+          <t>-1,73; 43,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 53,21</t>
+          <t>4,68; 54,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 25,36</t>
+          <t>-22,11; 22,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 39,21</t>
+          <t>-18,79; 43,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 46,99</t>
+          <t>-16,08; 51,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 57,0</t>
+          <t>-5,88; 59,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 31,89</t>
+          <t>-3,5; 32,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 40,29</t>
+          <t>2,86; 42,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 23,22</t>
+          <t>-11,65; 24,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,68</t>
+          <t>4,81; 10,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 15,8</t>
+          <t>9,8; 15,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 9,23</t>
+          <t>-3,14; 9,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,16</t>
+          <t>2,48; 7,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 10,73</t>
+          <t>5,91; 10,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 12,28</t>
+          <t>3,13; 12,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,35</t>
+          <t>4,61; 8,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,39</t>
+          <t>8,38; 12,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,98</t>
+          <t>2,18; 10,02</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,87; 53,98</t>
+          <t>21,6; 54,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,65; 81,19</t>
+          <t>43,84; 81,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 45,39</t>
+          <t>-13,79; 45,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 66,22</t>
+          <t>19,18; 68,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,95; 98,34</t>
+          <t>45,49; 99,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,25; 111,76</t>
+          <t>27,81; 112,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,09; 53,69</t>
+          <t>26,26; 53,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,49; 79,15</t>
+          <t>46,62; 78,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 61,91</t>
+          <t>13,81; 62,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 14,85</t>
+          <t>3,58; 15,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 20,13</t>
+          <t>8,78; 20,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 15,87</t>
+          <t>4,34; 15,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 9,38</t>
+          <t>-2,92; 9,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 12,67</t>
+          <t>1,3; 12,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 11,2</t>
+          <t>0,73; 11,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,57</t>
+          <t>2,05; 10,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,88</t>
+          <t>6,65; 14,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,81</t>
+          <t>4,03; 11,79</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,22; 60,97</t>
+          <t>11,77; 63,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,29; 80,6</t>
+          <t>27,96; 83,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,4; 64,18</t>
+          <t>14,11; 63,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 43,89</t>
+          <t>-10,74; 41,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 55,22</t>
+          <t>4,53; 55,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 52,25</t>
+          <t>2,24; 55,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,2; 43,62</t>
+          <t>6,99; 42,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,03; 60,13</t>
+          <t>22,78; 61,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,83; 48,67</t>
+          <t>14,16; 48,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,91</t>
+          <t>4,48; 8,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,56</t>
+          <t>9,36; 13,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,87</t>
+          <t>-0,72; 9,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,58</t>
+          <t>1,21; 4,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,34</t>
+          <t>4,96; 8,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 10,17</t>
+          <t>4,42; 10,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,12</t>
+          <t>3,23; 6,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,44</t>
+          <t>7,64; 10,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,05</t>
+          <t>3,99; 9,09</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,63; 44,58</t>
+          <t>20,36; 43,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,3; 68,73</t>
+          <t>42,4; 69,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 44,02</t>
+          <t>-2,51; 44,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,96; 41,85</t>
+          <t>9,67; 41,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,77; 75,2</t>
+          <t>39,14; 76,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,16; 89,32</t>
+          <t>37,56; 89,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,48; 39,21</t>
+          <t>18,86; 38,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,62; 67,05</t>
+          <t>44,66; 65,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,25; 56,87</t>
+          <t>24,46; 57,69</t>
         </is>
       </c>
     </row>
